--- a/recruitment/sbi_dev/dyv_sample.xlsx
+++ b/recruitment/sbi_dev/dyv_sample.xlsx
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -224,6 +224,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -28607,7 +28608,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -28657,7 +28658,7 @@
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>2178.0</v>
       </c>
       <c r="F2" s="1">
@@ -28707,7 +28708,7 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>1899.0</v>
       </c>
       <c r="F3" s="1">
@@ -28757,7 +28758,7 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>549.0</v>
       </c>
       <c r="F4" s="1">
@@ -28807,7 +28808,7 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>1804.0</v>
       </c>
       <c r="F5" s="1">
@@ -28857,7 +28858,7 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>2178.0</v>
       </c>
       <c r="F6" s="1">
@@ -28907,7 +28908,7 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>1527.0</v>
       </c>
       <c r="F7" s="1">
@@ -28957,7 +28958,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>2151.0</v>
       </c>
       <c r="F8" s="1">
@@ -29007,7 +29008,7 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>2750.0</v>
       </c>
       <c r="F9" s="1">
@@ -29057,7 +29058,7 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>1899.0</v>
       </c>
       <c r="F10" s="1">
@@ -29107,7 +29108,7 @@
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>3945.0</v>
       </c>
       <c r="F11" s="1">
@@ -29157,7 +29158,7 @@
       <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>2296.0</v>
       </c>
       <c r="F12" s="1">
@@ -29207,7 +29208,7 @@
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>1030.0</v>
       </c>
       <c r="F13" s="1">
@@ -29257,7 +29258,7 @@
       <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>639.0</v>
       </c>
       <c r="F14" s="1">
@@ -29307,7 +29308,7 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>2671.0</v>
       </c>
       <c r="F15" s="1">
@@ -29357,7 +29358,7 @@
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>2155.0</v>
       </c>
       <c r="F16" s="1">
@@ -29407,7 +29408,7 @@
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>1375.5</v>
       </c>
       <c r="F17" s="1">
@@ -29457,7 +29458,7 @@
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>787.0</v>
       </c>
       <c r="F18" s="1">
@@ -29507,7 +29508,7 @@
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>2155.0</v>
       </c>
       <c r="F19" s="1">
@@ -29557,7 +29558,7 @@
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>3864.0</v>
       </c>
       <c r="F20" s="1">
@@ -29607,7 +29608,7 @@
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>787.0</v>
       </c>
       <c r="F21" s="1">
@@ -29657,7 +29658,7 @@
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>1744.0</v>
       </c>
       <c r="F22" s="1">
@@ -29707,7 +29708,7 @@
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>321.0</v>
       </c>
       <c r="F23" s="1">
@@ -29757,7 +29758,7 @@
       <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>2145.0</v>
       </c>
       <c r="F24" s="1">
@@ -29807,7 +29808,7 @@
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>918.0</v>
       </c>
       <c r="F25" s="1">
@@ -29857,7 +29858,7 @@
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>1785.0</v>
       </c>
       <c r="F26" s="1">
@@ -29907,7 +29908,7 @@
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>1055.0</v>
       </c>
       <c r="F27" s="1">
@@ -29957,7 +29958,7 @@
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>1055.0</v>
       </c>
       <c r="F28" s="1">
@@ -30007,7 +30008,7 @@
       <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>941.0</v>
       </c>
       <c r="F29" s="1">
@@ -30057,7 +30058,7 @@
       <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>4243.5</v>
       </c>
       <c r="F30" s="1">
@@ -30107,7 +30108,7 @@
       <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>1901.0</v>
       </c>
       <c r="F31" s="1">
@@ -30157,7 +30158,7 @@
       <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>544.0</v>
       </c>
       <c r="F32" s="1">
@@ -30207,7 +30208,7 @@
       <c r="D33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>1287.0</v>
       </c>
       <c r="F33" s="1">
@@ -30257,7 +30258,7 @@
       <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>2434.5</v>
       </c>
       <c r="F34" s="1">
@@ -30307,7 +30308,7 @@
       <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>1901.0</v>
       </c>
       <c r="F35" s="1">
@@ -30357,7 +30358,7 @@
       <c r="D36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>1287.0</v>
       </c>
       <c r="F36" s="1">
@@ -30407,7 +30408,7 @@
       <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>2261.0</v>
       </c>
       <c r="F37" s="1">
@@ -30457,7 +30458,7 @@
       <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>2988.0</v>
       </c>
       <c r="F38" s="1">
@@ -30507,7 +30508,7 @@
       <c r="D39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>2177.0</v>
       </c>
       <c r="F39" s="1">
@@ -30557,7 +30558,7 @@
       <c r="D40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>866.0</v>
       </c>
       <c r="F40" s="1">
@@ -30607,7 +30608,7 @@
       <c r="D41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>2177.0</v>
       </c>
       <c r="F41" s="1">
@@ -30657,7 +30658,7 @@
       <c r="D42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>1865.0</v>
       </c>
       <c r="F42" s="1">
@@ -30707,7 +30708,7 @@
       <c r="D43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>1563.0</v>
       </c>
       <c r="F43" s="1">
@@ -30757,7 +30758,7 @@
       <c r="D44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>2487.0</v>
       </c>
       <c r="F44" s="1">
@@ -30807,7 +30808,7 @@
       <c r="D45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>1384.5</v>
       </c>
       <c r="F45" s="1">
@@ -30857,7 +30858,7 @@
       <c r="D46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>1303.0</v>
       </c>
       <c r="F46" s="1">
@@ -30907,7 +30908,7 @@
       <c r="D47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>2385.0</v>
       </c>
       <c r="F47" s="1">
@@ -30957,7 +30958,7 @@
       <c r="D48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>2620.0</v>
       </c>
       <c r="F48" s="1">
@@ -31007,7 +31008,7 @@
       <c r="D49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>704.0</v>
       </c>
       <c r="F49" s="1">
@@ -31057,7 +31058,7 @@
       <c r="D50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="3">
         <v>2136.0</v>
       </c>
       <c r="F50" s="1">
@@ -31107,7 +31108,7 @@
       <c r="D51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
         <v>1579.0</v>
       </c>
       <c r="F51" s="1">
@@ -31157,7 +31158,7 @@
       <c r="D52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="3">
         <v>704.0</v>
       </c>
       <c r="F52" s="1">
@@ -31207,7 +31208,7 @@
       <c r="D53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
         <v>1033.0</v>
       </c>
       <c r="F53" s="1">
@@ -31257,7 +31258,7 @@
       <c r="D54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="3">
         <v>2487.0</v>
       </c>
       <c r="F54" s="1">
@@ -31307,7 +31308,7 @@
       <c r="D55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="3">
         <v>3801.0</v>
       </c>
       <c r="F55" s="1">
@@ -31357,7 +31358,7 @@
       <c r="D56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="3">
         <v>1403.0</v>
       </c>
       <c r="F56" s="1">
@@ -31407,7 +31408,7 @@
       <c r="D57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="3">
         <v>1496.0</v>
       </c>
       <c r="F57" s="1">
@@ -31457,7 +31458,7 @@
       <c r="D58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="3">
         <v>1496.0</v>
       </c>
       <c r="F58" s="1">
@@ -31507,7 +31508,7 @@
       <c r="D59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="3">
         <v>1221.0</v>
       </c>
       <c r="F59" s="1">
@@ -31557,7 +31558,7 @@
       <c r="D60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="3">
         <v>2076.0</v>
       </c>
       <c r="F60" s="1">
@@ -31607,7 +31608,7 @@
       <c r="D61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="3">
         <v>1221.0</v>
       </c>
       <c r="F61" s="1">
@@ -31657,7 +31658,7 @@
       <c r="D62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="3">
         <v>1987.5</v>
       </c>
       <c r="F62" s="1">
@@ -31707,7 +31708,7 @@
       <c r="D63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="3">
         <v>1403.0</v>
       </c>
       <c r="F63" s="1">
@@ -31757,7 +31758,7 @@
       <c r="D64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="3">
         <v>2076.0</v>
       </c>
       <c r="F64" s="1">
@@ -31807,7 +31808,7 @@
       <c r="D65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="3">
         <v>1757.0</v>
       </c>
       <c r="F65" s="1">
@@ -31857,7 +31858,7 @@
       <c r="D66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="3">
         <v>1757.0</v>
       </c>
       <c r="F66" s="1">
@@ -31907,7 +31908,7 @@
       <c r="D67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="3">
         <v>2342.0</v>
       </c>
       <c r="F67" s="1">
@@ -31957,7 +31958,7 @@
       <c r="D68" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="3">
         <v>1031.0</v>
       </c>
       <c r="F68" s="1">
@@ -32007,7 +32008,7 @@
       <c r="D69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="3">
         <v>1738.5</v>
       </c>
       <c r="F69" s="1">
@@ -32057,7 +32058,7 @@
       <c r="D70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="3">
         <v>448.0</v>
       </c>
       <c r="F70" s="1">
@@ -32107,7 +32108,7 @@
       <c r="D71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="3">
         <v>2181.0</v>
       </c>
       <c r="F71" s="1">
@@ -32157,7 +32158,7 @@
       <c r="D72" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="3">
         <v>1976.0</v>
       </c>
       <c r="F72" s="1">
@@ -32207,7 +32208,7 @@
       <c r="D73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="3">
         <v>2181.0</v>
       </c>
       <c r="F73" s="1">
@@ -32257,7 +32258,7 @@
       <c r="D74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="3">
         <v>448.0</v>
       </c>
       <c r="F74" s="1">
@@ -32307,7 +32308,7 @@
       <c r="D75" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="3">
         <v>2101.0</v>
       </c>
       <c r="F75" s="1">
@@ -32357,7 +32358,7 @@
       <c r="D76" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="3">
         <v>1535.0</v>
       </c>
       <c r="F76" s="1">
@@ -32407,7 +32408,7 @@
       <c r="D77" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="3">
         <v>1659.0</v>
       </c>
       <c r="F77" s="1">
@@ -32457,7 +32458,7 @@
       <c r="D78" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="3">
         <v>1976.0</v>
       </c>
       <c r="F78" s="1">
@@ -32507,7 +32508,7 @@
       <c r="D79" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="3">
         <v>959.0</v>
       </c>
       <c r="F79" s="1">
@@ -32557,7 +32558,7 @@
       <c r="D80" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="3">
         <v>2876.0</v>
       </c>
       <c r="F80" s="1">
@@ -32607,7 +32608,7 @@
       <c r="D81" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="3">
         <v>490.0</v>
       </c>
       <c r="F81" s="1">
@@ -32657,7 +32658,7 @@
       <c r="D82" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="3">
         <v>2501.0</v>
       </c>
       <c r="F82" s="1">
@@ -32707,7 +32708,7 @@
       <c r="D83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="3">
         <v>1562.0</v>
       </c>
       <c r="F83" s="1">
@@ -32757,7 +32758,7 @@
       <c r="D84" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="3">
         <v>386.0</v>
       </c>
       <c r="F84" s="1">
@@ -32807,7 +32808,7 @@
       <c r="D85" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="3">
         <v>574.5</v>
       </c>
       <c r="F85" s="1">
@@ -32857,7 +32858,7 @@
       <c r="D86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="3">
         <v>381.0</v>
       </c>
       <c r="F86" s="1">
@@ -32907,7 +32908,7 @@
       <c r="D87" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="3">
         <v>1666.0</v>
       </c>
       <c r="F87" s="1">
@@ -32957,7 +32958,7 @@
       <c r="D88" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="3">
         <v>322.0</v>
       </c>
       <c r="F88" s="1">
@@ -33007,7 +33008,7 @@
       <c r="D89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="3">
         <v>1857.0</v>
       </c>
       <c r="F89" s="1">
@@ -33057,7 +33058,7 @@
       <c r="D90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="3">
         <v>1227.0</v>
       </c>
       <c r="F90" s="1">
@@ -33107,7 +33108,7 @@
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="3">
         <v>1324.0</v>
       </c>
       <c r="F91" s="1">
@@ -33157,7 +33158,7 @@
       <c r="D92" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="3">
         <v>2234.0</v>
       </c>
       <c r="F92" s="1">
@@ -33207,7 +33208,7 @@
       <c r="D93" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="3">
         <v>1227.0</v>
       </c>
       <c r="F93" s="1">
@@ -33257,7 +33258,7 @@
       <c r="D94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="3">
         <v>1967.0</v>
       </c>
       <c r="F94" s="1">
@@ -33307,7 +33308,7 @@
       <c r="D95" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="3">
         <v>2682.0</v>
       </c>
       <c r="F95" s="1">
@@ -33357,7 +33358,7 @@
       <c r="D96" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="3">
         <v>306.0</v>
       </c>
       <c r="F96" s="1">
@@ -33407,7 +33408,7 @@
       <c r="D97" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="3">
         <v>1482.0</v>
       </c>
       <c r="F97" s="1">
@@ -33457,7 +33458,7 @@
       <c r="D98" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="3">
         <v>2072.0</v>
       </c>
       <c r="F98" s="1">
@@ -33507,7 +33508,7 @@
       <c r="D99" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="3">
         <v>1954.0</v>
       </c>
       <c r="F99" s="1">
@@ -33557,7 +33558,7 @@
       <c r="D100" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="3">
         <v>2167.0</v>
       </c>
       <c r="F100" s="1">
@@ -33607,7 +33608,7 @@
       <c r="D101" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="3">
         <v>639.0</v>
       </c>
       <c r="F101" s="1">
@@ -33657,7 +33658,7 @@
       <c r="D102" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="3">
         <v>853.0</v>
       </c>
       <c r="F102" s="1">
@@ -33707,7 +33708,7 @@
       <c r="D103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="3">
         <v>2167.0</v>
       </c>
       <c r="F103" s="1">
@@ -33757,7 +33758,7 @@
       <c r="D104" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="3">
         <v>2072.0</v>
       </c>
       <c r="F104" s="1">
@@ -33807,7 +33808,7 @@
       <c r="D105" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="3">
         <v>853.0</v>
       </c>
       <c r="F105" s="1">
@@ -33857,7 +33858,7 @@
       <c r="D106" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="3">
         <v>1198.0</v>
       </c>
       <c r="F106" s="1">
@@ -33907,7 +33908,7 @@
       <c r="D107" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="3">
         <v>2532.0</v>
       </c>
       <c r="F107" s="1">
@@ -33957,7 +33958,7 @@
       <c r="D108" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="3">
         <v>1198.0</v>
       </c>
       <c r="F108" s="1">
@@ -34007,7 +34008,7 @@
       <c r="D109" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="3">
         <v>2441.0</v>
       </c>
       <c r="F109" s="1">
@@ -34057,7 +34058,7 @@
       <c r="D110" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="3">
         <v>2425.5</v>
       </c>
       <c r="F110" s="1">
@@ -34107,7 +34108,7 @@
       <c r="D111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="3">
         <v>2441.0</v>
       </c>
       <c r="F111" s="1">
@@ -34157,7 +34158,7 @@
       <c r="D112" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="3">
         <v>2805.0</v>
       </c>
       <c r="F112" s="1">
@@ -34207,7 +34208,7 @@
       <c r="D113" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="3">
         <v>1734.0</v>
       </c>
       <c r="F113" s="1">
@@ -34257,7 +34258,7 @@
       <c r="D114" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="3">
         <v>1433.0</v>
       </c>
       <c r="F114" s="1">
@@ -34307,7 +34308,7 @@
       <c r="D115" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="3">
         <v>1773.0</v>
       </c>
       <c r="F115" s="1">
@@ -34357,7 +34358,7 @@
       <c r="D116" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="3">
         <v>1186.0</v>
       </c>
       <c r="F116" s="1">
@@ -34407,7 +34408,7 @@
       <c r="D117" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="3">
         <v>1594.0</v>
       </c>
       <c r="F117" s="1">
@@ -34457,7 +34458,7 @@
       <c r="D118" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="3">
         <v>3874.5</v>
       </c>
       <c r="F118" s="1">
@@ -34507,7 +34508,7 @@
       <c r="D119" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="3">
         <v>3421.5</v>
       </c>
       <c r="F119" s="1">
@@ -34557,7 +34558,7 @@
       <c r="D120" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="3">
         <v>2521.5</v>
       </c>
       <c r="F120" s="1">
@@ -34607,7 +34608,7 @@
       <c r="D121" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="3">
         <v>1491.0</v>
       </c>
       <c r="F121" s="1">
@@ -34657,7 +34658,7 @@
       <c r="D122" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="3">
         <v>1790.0</v>
       </c>
       <c r="F122" s="1">
@@ -34707,7 +34708,7 @@
       <c r="D123" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="3">
         <v>2696.0</v>
       </c>
       <c r="F123" s="1">
@@ -34757,7 +34758,7 @@
       <c r="D124" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="3">
         <v>3997.5</v>
       </c>
       <c r="F124" s="1">
@@ -34807,7 +34808,7 @@
       <c r="D125" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="3">
         <v>1190.0</v>
       </c>
       <c r="F125" s="1">
@@ -34857,7 +34858,7 @@
       <c r="D126" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="3">
         <v>1190.0</v>
       </c>
       <c r="F126" s="1">
@@ -34907,7 +34908,7 @@
       <c r="D127" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="3">
         <v>293.0</v>
       </c>
       <c r="F127" s="1">
@@ -34957,7 +34958,7 @@
       <c r="D128" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="3">
         <v>1393.0</v>
       </c>
       <c r="F128" s="1">
@@ -35007,7 +35008,7 @@
       <c r="D129" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="3">
         <v>1393.0</v>
       </c>
       <c r="F129" s="1">
@@ -35057,7 +35058,7 @@
       <c r="D130" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="3">
         <v>1023.0</v>
       </c>
       <c r="F130" s="1">
@@ -35107,7 +35108,7 @@
       <c r="D131" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="3">
         <v>1731.0</v>
       </c>
       <c r="F131" s="1">
@@ -35157,7 +35158,7 @@
       <c r="D132" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="3">
         <v>1922.0</v>
       </c>
       <c r="F132" s="1">
@@ -35207,7 +35208,7 @@
       <c r="D133" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="3">
         <v>1281.0</v>
       </c>
       <c r="F133" s="1">
@@ -35257,7 +35258,7 @@
       <c r="D134" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="3">
         <v>2475.0</v>
       </c>
       <c r="F134" s="1">
@@ -35307,7 +35308,7 @@
       <c r="D135" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="3">
         <v>1731.0</v>
       </c>
       <c r="F135" s="1">
@@ -35357,7 +35358,7 @@
       <c r="D136" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="3">
         <v>1174.0</v>
       </c>
       <c r="F136" s="1">
@@ -35407,7 +35408,7 @@
       <c r="D137" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="3">
         <v>293.0</v>
       </c>
       <c r="F137" s="1">
@@ -35457,7 +35458,7 @@
       <c r="D138" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="3">
         <v>2826.0</v>
       </c>
       <c r="F138" s="1">
@@ -35507,7 +35508,7 @@
       <c r="D139" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="3">
         <v>663.0</v>
       </c>
       <c r="F139" s="1">
@@ -35557,7 +35558,7 @@
       <c r="D140" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="3">
         <v>293.0</v>
       </c>
       <c r="F140" s="1">
@@ -35607,7 +35608,7 @@
       <c r="D141" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="3">
         <v>2475.0</v>
       </c>
       <c r="F141" s="1">
@@ -35657,7 +35658,7 @@
       <c r="D142" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="3">
         <v>1321.0</v>
       </c>
       <c r="F142" s="1">
@@ -35707,7 +35708,7 @@
       <c r="D143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="3">
         <v>888.0</v>
       </c>
       <c r="F143" s="1">
@@ -35757,7 +35758,7 @@
       <c r="D144" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="3">
         <v>1513.0</v>
       </c>
       <c r="F144" s="1">
@@ -35807,7 +35808,7 @@
       <c r="D145" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="3">
         <v>921.0</v>
       </c>
       <c r="F145" s="1">
@@ -35857,7 +35858,7 @@
       <c r="D146" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="3">
         <v>1545.0</v>
       </c>
       <c r="F146" s="1">
@@ -35907,7 +35908,7 @@
       <c r="D147" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="3">
         <v>2146.0</v>
       </c>
       <c r="F147" s="1">
@@ -35957,7 +35958,7 @@
       <c r="D148" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="3">
         <v>1006.0</v>
       </c>
       <c r="F148" s="1">
@@ -36007,7 +36008,7 @@
       <c r="D149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="3">
         <v>367.0</v>
       </c>
       <c r="F149" s="1">
@@ -36057,7 +36058,7 @@
       <c r="D150" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="3">
         <v>1513.0</v>
       </c>
       <c r="F150" s="1">
@@ -36107,7 +36108,7 @@
       <c r="D151" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="3">
         <v>2161.0</v>
       </c>
       <c r="F151" s="1">
@@ -36157,7 +36158,7 @@
       <c r="D152" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="3">
         <v>1006.0</v>
       </c>
       <c r="F152" s="1">
@@ -36207,7 +36208,7 @@
       <c r="D153" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="3">
         <v>1545.0</v>
       </c>
       <c r="F153" s="1">
@@ -36257,7 +36258,7 @@
       <c r="D154" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="3">
         <v>2838.0</v>
       </c>
       <c r="F154" s="1">
@@ -36307,7 +36308,7 @@
       <c r="D155" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="3">
         <v>888.0</v>
       </c>
       <c r="F155" s="1">
@@ -36357,7 +36358,7 @@
       <c r="D156" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="3">
         <v>4219.5</v>
       </c>
       <c r="F156" s="1">
@@ -36407,7 +36408,7 @@
       <c r="D157" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="3">
         <v>1686.0</v>
       </c>
       <c r="F157" s="1">
@@ -36457,7 +36458,7 @@
       <c r="D158" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="3">
         <v>766.0</v>
       </c>
       <c r="F158" s="1">
@@ -36507,7 +36508,7 @@
       <c r="D159" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="3">
         <v>747.0</v>
       </c>
       <c r="F159" s="1">
@@ -36557,7 +36558,7 @@
       <c r="D160" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="3">
         <v>766.0</v>
       </c>
       <c r="F160" s="1">
@@ -36607,7 +36608,7 @@
       <c r="D161" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="3">
         <v>263.0</v>
       </c>
       <c r="F161" s="1">
@@ -36657,7 +36658,7 @@
       <c r="D162" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="3">
         <v>986.0</v>
       </c>
       <c r="F162" s="1">
@@ -36707,7 +36708,7 @@
       <c r="D163" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="3">
         <v>214.0</v>
       </c>
       <c r="F163" s="1">
@@ -36757,7 +36758,7 @@
       <c r="D164" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="3">
         <v>1728.0</v>
       </c>
       <c r="F164" s="1">
@@ -36807,7 +36808,7 @@
       <c r="D165" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="3">
         <v>809.0</v>
       </c>
       <c r="F165" s="1">
@@ -36857,7 +36858,7 @@
       <c r="D166" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="3">
         <v>2966.0</v>
       </c>
       <c r="F166" s="1">
@@ -36907,7 +36908,7 @@
       <c r="D167" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="3">
         <v>2877.0</v>
       </c>
       <c r="F167" s="1">
@@ -36957,7 +36958,7 @@
       <c r="D168" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="3">
         <v>809.0</v>
       </c>
       <c r="F168" s="1">
@@ -37007,7 +37008,7 @@
       <c r="D169" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="3">
         <v>214.0</v>
       </c>
       <c r="F169" s="1">
@@ -37057,7 +37058,7 @@
       <c r="D170" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="3">
         <v>2877.0</v>
       </c>
       <c r="F170" s="1">
@@ -37107,7 +37108,7 @@
       <c r="D171" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="3">
         <v>259.0</v>
       </c>
       <c r="F171" s="1">
@@ -37157,7 +37158,7 @@
       <c r="D172" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="3">
         <v>2276.0</v>
       </c>
       <c r="F172" s="1">
@@ -37207,7 +37208,7 @@
       <c r="D173" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="3">
         <v>2966.0</v>
       </c>
       <c r="F173" s="1">
@@ -37257,7 +37258,7 @@
       <c r="D174" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="3">
         <v>2580.0</v>
       </c>
       <c r="F174" s="1">
@@ -37307,7 +37308,7 @@
       <c r="D175" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="3">
         <v>689.0</v>
       </c>
       <c r="F175" s="1">
@@ -37357,7 +37358,7 @@
       <c r="D176" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="3">
         <v>1958.0</v>
       </c>
       <c r="F176" s="1">
@@ -37407,7 +37408,7 @@
       <c r="D177" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177" s="3">
         <v>1797.0</v>
       </c>
       <c r="F177" s="1">
@@ -37457,7 +37458,7 @@
       <c r="D178" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="3">
         <v>1706.0</v>
       </c>
       <c r="F178" s="1">
@@ -37507,7 +37508,7 @@
       <c r="D179" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179" s="3">
         <v>689.0</v>
       </c>
       <c r="F179" s="1">
@@ -37557,7 +37558,7 @@
       <c r="D180" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="3">
         <v>1570.0</v>
       </c>
       <c r="F180" s="1">
@@ -37607,7 +37608,7 @@
       <c r="D181" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="3">
         <v>1945.0</v>
       </c>
       <c r="F181" s="1">
@@ -37657,7 +37658,7 @@
       <c r="D182" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="3">
         <v>1706.0</v>
       </c>
       <c r="F182" s="1">
@@ -37707,7 +37708,7 @@
       <c r="D183" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="3">
         <v>1570.0</v>
       </c>
       <c r="F183" s="1">
@@ -37757,7 +37758,7 @@
       <c r="D184" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184" s="3">
         <v>1945.0</v>
       </c>
       <c r="F184" s="1">
@@ -37807,7 +37808,7 @@
       <c r="D185" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="3">
         <v>2479.0</v>
       </c>
       <c r="F185" s="1">
@@ -37857,7 +37858,7 @@
       <c r="D186" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186" s="3">
         <v>2021.0</v>
       </c>
       <c r="F186" s="1">
@@ -37907,7 +37908,7 @@
       <c r="D187" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="3">
         <v>1859.0</v>
       </c>
       <c r="F187" s="1">
@@ -37957,7 +37958,7 @@
       <c r="D188" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188" s="3">
         <v>2021.0</v>
       </c>
       <c r="F188" s="1">
@@ -38007,7 +38008,7 @@
       <c r="D189" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="3">
         <v>795.0</v>
       </c>
       <c r="F189" s="1">
@@ -38057,7 +38058,7 @@
       <c r="D190" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190" s="3">
         <v>1414.5</v>
       </c>
       <c r="F190" s="1">
@@ -38107,7 +38108,7 @@
       <c r="D191" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191" s="3">
         <v>1907.0</v>
       </c>
       <c r="F191" s="1">
@@ -38157,7 +38158,7 @@
       <c r="D192" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192" s="3">
         <v>1159.0</v>
       </c>
       <c r="F192" s="1">
@@ -38207,7 +38208,7 @@
       <c r="D193" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="3">
         <v>1372.0</v>
       </c>
       <c r="F193" s="1">
@@ -38257,7 +38258,7 @@
       <c r="D194" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194" s="3">
         <v>1159.0</v>
       </c>
       <c r="F194" s="1">
@@ -38307,7 +38308,7 @@
       <c r="D195" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="3">
         <v>1116.0</v>
       </c>
       <c r="F195" s="1">
@@ -38357,7 +38358,7 @@
       <c r="D196" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="3">
         <v>1016.0</v>
       </c>
       <c r="F196" s="1">
@@ -38407,7 +38408,7 @@
       <c r="D197" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197" s="3">
         <v>2342.0</v>
       </c>
       <c r="F197" s="1">
@@ -38457,7 +38458,7 @@
       <c r="D198" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E198" s="3">
         <v>2116.0</v>
       </c>
       <c r="F198" s="1">
@@ -38507,7 +38508,7 @@
       <c r="D199" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199" s="3">
         <v>807.0</v>
       </c>
       <c r="F199" s="1">
@@ -38557,7 +38558,7 @@
       <c r="D200" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200" s="3">
         <v>1250.0</v>
       </c>
       <c r="F200" s="1">
@@ -38607,7 +38608,7 @@
       <c r="D201" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201" s="3">
         <v>2297.0</v>
       </c>
       <c r="F201" s="1">
@@ -38657,7 +38658,7 @@
       <c r="D202" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202" s="3">
         <v>1350.0</v>
       </c>
       <c r="F202" s="1">
@@ -38707,7 +38708,7 @@
       <c r="D203" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203" s="3">
         <v>1250.0</v>
       </c>
       <c r="F203" s="1">
@@ -38757,7 +38758,7 @@
       <c r="D204" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204" s="3">
         <v>887.0</v>
       </c>
       <c r="F204" s="1">
@@ -38807,7 +38808,7 @@
       <c r="D205" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205" s="3">
         <v>1460.0</v>
       </c>
       <c r="F205" s="1">
@@ -38857,7 +38858,7 @@
       <c r="D206" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206" s="3">
         <v>1530.0</v>
       </c>
       <c r="F206" s="1">
@@ -38907,7 +38908,7 @@
       <c r="D207" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207" s="3">
         <v>1743.0</v>
       </c>
       <c r="F207" s="1">
@@ -38957,7 +38958,7 @@
       <c r="D208" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="3">
         <v>1001.0</v>
       </c>
       <c r="F208" s="1">
@@ -39007,7 +39008,7 @@
       <c r="D209" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E209" s="3">
         <v>2215.0</v>
       </c>
       <c r="F209" s="1">
@@ -39057,7 +39058,7 @@
       <c r="D210" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E210" s="3">
         <v>2500.0</v>
       </c>
       <c r="F210" s="1">
@@ -39107,7 +39108,7 @@
       <c r="D211" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211" s="3">
         <v>3513.0</v>
       </c>
       <c r="F211" s="1">
@@ -39157,7 +39158,7 @@
       <c r="D212" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212" s="3">
         <v>1123.0</v>
       </c>
       <c r="F212" s="1">
@@ -39207,7 +39208,7 @@
       <c r="D213" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213" s="3">
         <v>2125.0</v>
       </c>
       <c r="F213" s="1">
@@ -39257,7 +39258,7 @@
       <c r="D214" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="3">
         <v>2087.0</v>
       </c>
       <c r="F214" s="1">
@@ -39307,7 +39308,7 @@
       <c r="D215" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215" s="3">
         <v>588.0</v>
       </c>
       <c r="F215" s="1">
@@ -39357,7 +39358,7 @@
       <c r="D216" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="3">
         <v>994.0</v>
       </c>
       <c r="F216" s="1">
@@ -39407,7 +39408,7 @@
       <c r="D217" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E217" s="3">
         <v>645.0</v>
       </c>
       <c r="F217" s="1">
@@ -39457,7 +39458,7 @@
       <c r="D218" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E218" s="3">
         <v>711.0</v>
       </c>
       <c r="F218" s="1">
@@ -39507,7 +39508,7 @@
       <c r="D219" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219" s="3">
         <v>1259.0</v>
       </c>
       <c r="F219" s="1">
@@ -39557,7 +39558,7 @@
       <c r="D220" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="3">
         <v>1095.0</v>
       </c>
       <c r="F220" s="1">
@@ -39607,7 +39608,7 @@
       <c r="D221" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221" s="3">
         <v>1366.0</v>
       </c>
       <c r="F221" s="1">
@@ -39657,7 +39658,7 @@
       <c r="D222" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222" s="3">
         <v>1598.0</v>
       </c>
       <c r="F222" s="1">
@@ -39707,7 +39708,7 @@
       <c r="D223" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223" s="3">
         <v>2409.0</v>
       </c>
       <c r="F223" s="1">
@@ -39757,7 +39758,7 @@
       <c r="D224" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224" s="3">
         <v>1934.0</v>
       </c>
       <c r="F224" s="1">
@@ -39807,7 +39808,7 @@
       <c r="D225" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225" s="3">
         <v>2146.0</v>
       </c>
       <c r="F225" s="1">
@@ -39857,7 +39858,7 @@
       <c r="D226" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226" s="3">
         <v>2338.0</v>
       </c>
       <c r="F226" s="1">
@@ -39907,7 +39908,7 @@
       <c r="D227" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227" s="3">
         <v>2338.0</v>
       </c>
       <c r="F227" s="1">
@@ -39957,7 +39958,7 @@
       <c r="D228" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228" s="3">
         <v>422.0</v>
       </c>
       <c r="F228" s="1">
@@ -40007,7 +40008,7 @@
       <c r="D229" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229" s="3">
         <v>1366.0</v>
       </c>
       <c r="F229" s="1">
@@ -40057,7 +40058,7 @@
       <c r="D230" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230" s="3">
         <v>1520.0</v>
       </c>
       <c r="F230" s="1">
@@ -40107,7 +40108,7 @@
       <c r="D231" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231" s="3">
         <v>711.0</v>
       </c>
       <c r="F231" s="1">
@@ -40157,7 +40158,7 @@
       <c r="D232" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232" s="3">
         <v>334.0</v>
       </c>
       <c r="F232" s="1">
@@ -40207,7 +40208,7 @@
       <c r="D233" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233" s="3">
         <v>1775.0</v>
       </c>
       <c r="F233" s="1">
@@ -40257,7 +40258,7 @@
       <c r="D234" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234" s="3">
         <v>1307.0</v>
       </c>
       <c r="F234" s="1">
@@ -40307,7 +40308,7 @@
       <c r="D235" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235" s="3">
         <v>2659.0</v>
       </c>
       <c r="F235" s="1">
@@ -40357,7 +40358,7 @@
       <c r="D236" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236" s="3">
         <v>880.0</v>
       </c>
       <c r="F236" s="1">
@@ -40407,7 +40408,7 @@
       <c r="D237" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E237" s="1">
+      <c r="E237" s="3">
         <v>970.0</v>
       </c>
       <c r="F237" s="1">
@@ -40457,7 +40458,7 @@
       <c r="D238" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238" s="3">
         <v>663.0</v>
       </c>
       <c r="F238" s="1">
@@ -40507,7 +40508,7 @@
       <c r="D239" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E239" s="3">
         <v>1580.0</v>
       </c>
       <c r="F239" s="1">
@@ -40557,7 +40558,7 @@
       <c r="D240" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240" s="3">
         <v>360.0</v>
       </c>
       <c r="F240" s="1">
@@ -40607,7 +40608,7 @@
       <c r="D241" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E241" s="1">
+      <c r="E241" s="3">
         <v>360.0</v>
       </c>
       <c r="F241" s="1">
@@ -40657,7 +40658,7 @@
       <c r="D242" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E242" s="3">
         <v>241.0</v>
       </c>
       <c r="F242" s="1">
@@ -40707,7 +40708,7 @@
       <c r="D243" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E243" s="1">
+      <c r="E243" s="3">
         <v>681.0</v>
       </c>
       <c r="F243" s="1">
@@ -40757,7 +40758,7 @@
       <c r="D244" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E244" s="3">
         <v>510.0</v>
       </c>
       <c r="F244" s="1">
@@ -40807,7 +40808,7 @@
       <c r="D245" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E245" s="1">
+      <c r="E245" s="3">
         <v>241.0</v>
       </c>
       <c r="F245" s="1">
@@ -40857,7 +40858,7 @@
       <c r="D246" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E246" s="1">
+      <c r="E246" s="3">
         <v>2665.0</v>
       </c>
       <c r="F246" s="1">
@@ -40907,7 +40908,7 @@
       <c r="D247" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E247" s="1">
+      <c r="E247" s="3">
         <v>1870.0</v>
       </c>
       <c r="F247" s="1">
@@ -40957,7 +40958,7 @@
       <c r="D248" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E248" s="3">
         <v>2574.0</v>
       </c>
       <c r="F248" s="1">
@@ -41007,7 +41008,7 @@
       <c r="D249" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E249" s="1">
+      <c r="E249" s="3">
         <v>472.0</v>
       </c>
       <c r="F249" s="1">
@@ -41057,7 +41058,7 @@
       <c r="D250" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E250" s="1">
+      <c r="E250" s="3">
         <v>472.0</v>
       </c>
       <c r="F250" s="1">
@@ -41107,7 +41108,7 @@
       <c r="D251" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E251" s="1">
+      <c r="E251" s="3">
         <v>792.0</v>
       </c>
       <c r="F251" s="1">
@@ -41157,7 +41158,7 @@
       <c r="D252" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E252" s="1">
+      <c r="E252" s="3">
         <v>2811.0</v>
       </c>
       <c r="F252" s="1">
@@ -41207,7 +41208,7 @@
       <c r="D253" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E253" s="1">
+      <c r="E253" s="3">
         <v>766.0</v>
       </c>
       <c r="F253" s="1">
@@ -41257,7 +41258,7 @@
       <c r="D254" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E254" s="3">
         <v>2992.0</v>
       </c>
       <c r="F254" s="1">
@@ -41307,7 +41308,7 @@
       <c r="D255" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E255" s="1">
+      <c r="E255" s="3">
         <v>2992.0</v>
       </c>
       <c r="F255" s="1">
@@ -41357,7 +41358,7 @@
       <c r="D256" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E256" s="1">
+      <c r="E256" s="3">
         <v>3165.0</v>
       </c>
       <c r="F256" s="1">
@@ -41407,7 +41408,7 @@
       <c r="D257" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E257" s="1">
+      <c r="E257" s="3">
         <v>1359.0</v>
       </c>
       <c r="F257" s="1">
@@ -41457,7 +41458,7 @@
       <c r="D258" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E258" s="3">
         <v>1531.0</v>
       </c>
       <c r="F258" s="1">
@@ -41507,7 +41508,7 @@
       <c r="D259" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E259" s="1">
+      <c r="E259" s="3">
         <v>1531.0</v>
       </c>
       <c r="F259" s="1">
@@ -41557,7 +41558,7 @@
       <c r="D260" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E260" s="1">
+      <c r="E260" s="3">
         <v>442.0</v>
       </c>
       <c r="F260" s="1">
@@ -41607,7 +41608,7 @@
       <c r="D261" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E261" s="1">
+      <c r="E261" s="3">
         <v>807.0</v>
       </c>
       <c r="F261" s="1">
@@ -41657,7 +41658,7 @@
       <c r="D262" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E262" s="1">
+      <c r="E262" s="3">
         <v>2708.0</v>
       </c>
       <c r="F262" s="1">
@@ -41707,7 +41708,7 @@
       <c r="D263" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E263" s="1">
+      <c r="E263" s="3">
         <v>357.0</v>
       </c>
       <c r="F263" s="1">
@@ -41757,7 +41758,7 @@
       <c r="D264" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E264" s="1">
+      <c r="E264" s="3">
         <v>1013.0</v>
       </c>
       <c r="F264" s="1">
@@ -41807,7 +41808,7 @@
       <c r="D265" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E265" s="1">
+      <c r="E265" s="3">
         <v>660.0</v>
       </c>
       <c r="F265" s="1">
@@ -41857,7 +41858,7 @@
       <c r="D266" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E266" s="1">
+      <c r="E266" s="3">
         <v>1013.0</v>
       </c>
       <c r="F266" s="1">
@@ -41907,7 +41908,7 @@
       <c r="D267" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E267" s="1">
+      <c r="E267" s="3">
         <v>1770.0</v>
       </c>
       <c r="F267" s="1">
@@ -41957,7 +41958,7 @@
       <c r="D268" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E268" s="1">
+      <c r="E268" s="3">
         <v>280.0</v>
       </c>
       <c r="F268" s="1">
@@ -42007,7 +42008,7 @@
       <c r="D269" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E269" s="1">
+      <c r="E269" s="3">
         <v>278.0</v>
       </c>
       <c r="F269" s="1">
@@ -42057,7 +42058,7 @@
       <c r="D270" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E270" s="1">
+      <c r="E270" s="3">
         <v>280.0</v>
       </c>
       <c r="F270" s="1">
@@ -42107,7 +42108,7 @@
       <c r="D271" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E271" s="1">
+      <c r="E271" s="3">
         <v>1513.0</v>
       </c>
       <c r="F271" s="1">
@@ -42157,7 +42158,7 @@
       <c r="D272" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E272" s="1">
+      <c r="E272" s="3">
         <v>1199.0</v>
       </c>
       <c r="F272" s="1">
@@ -42207,7 +42208,7 @@
       <c r="D273" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E273" s="1">
+      <c r="E273" s="3">
         <v>2536.0</v>
       </c>
       <c r="F273" s="1">
@@ -42257,7 +42258,7 @@
       <c r="D274" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E274" s="1">
+      <c r="E274" s="3">
         <v>2767.0</v>
       </c>
       <c r="F274" s="1">
@@ -42307,7 +42308,7 @@
       <c r="D275" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E275" s="1">
+      <c r="E275" s="3">
         <v>1085.0</v>
       </c>
       <c r="F275" s="1">
@@ -42357,7 +42358,7 @@
       <c r="D276" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E276" s="1">
+      <c r="E276" s="3">
         <v>1158.0</v>
       </c>
       <c r="F276" s="1">
@@ -42407,7 +42408,7 @@
       <c r="D277" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E277" s="1">
+      <c r="E277" s="3">
         <v>1085.0</v>
       </c>
       <c r="F277" s="1">
@@ -42457,7 +42458,7 @@
       <c r="D278" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E278" s="1">
+      <c r="E278" s="3">
         <v>1175.0</v>
       </c>
       <c r="F278" s="1">
@@ -42507,7 +42508,7 @@
       <c r="D279" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E279" s="1">
+      <c r="E279" s="3">
         <v>492.0</v>
       </c>
       <c r="F279" s="1">
@@ -42557,7 +42558,7 @@
       <c r="D280" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E280" s="1">
+      <c r="E280" s="3">
         <v>1175.0</v>
       </c>
       <c r="F280" s="1">
@@ -42607,7 +42608,7 @@
       <c r="D281" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E281" s="1">
+      <c r="E281" s="3">
         <v>552.0</v>
       </c>
       <c r="F281" s="1">
@@ -42644,725 +42645,2163 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="E282" s="12"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="E283" s="12"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="E285" s="12"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="E286" s="12"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="E287" s="12"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="E289" s="12"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="E290" s="12"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="E292" s="12"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="E293" s="12"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="E294" s="12"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="E295" s="12"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="E296" s="12"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="E297" s="12"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="E298" s="12"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="E299" s="12"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="E300" s="12"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="E301" s="12"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="E302" s="12"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="E303" s="12"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="E304" s="12"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="E306" s="12"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="E307" s="12"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="E308" s="12"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="E309" s="12"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="E310" s="12"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="E311" s="12"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="E312" s="12"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="E313" s="12"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="E314" s="12"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="E315" s="12"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="E316" s="12"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="E317" s="12"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="E318" s="12"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="E319" s="12"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="E320" s="12"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="E321" s="12"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="E322" s="12"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="E323" s="12"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="E324" s="12"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="E325" s="12"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="E326" s="12"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="E327" s="12"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="E328" s="12"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="E329" s="12"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="E330" s="12"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="E331" s="12"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="E332" s="12"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="E333" s="12"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="E334" s="12"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="E335" s="12"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="E336" s="12"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="E337" s="12"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="E338" s="12"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="E339" s="12"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="E340" s="12"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="E341" s="12"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="E342" s="12"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="E343" s="12"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="E344" s="12"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="E345" s="12"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="E346" s="12"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="E347" s="12"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="E348" s="12"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="E349" s="12"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="E350" s="12"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="E351" s="12"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="E352" s="12"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="E353" s="12"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="E354" s="12"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="E355" s="12"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="E356" s="12"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="E357" s="12"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="E358" s="12"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="E359" s="12"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="E360" s="12"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="E361" s="12"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="E362" s="12"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="E363" s="12"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="E364" s="12"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="E365" s="12"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="E366" s="12"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="E367" s="12"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="E368" s="12"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="E369" s="12"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="E370" s="12"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="E371" s="12"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="E372" s="12"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="E373" s="12"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="E374" s="12"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="E375" s="12"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="E376" s="12"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="E377" s="12"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="E378" s="12"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="E379" s="12"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="E380" s="12"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="E381" s="12"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="E382" s="12"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="E383" s="12"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="E384" s="12"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="E385" s="12"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="E386" s="12"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="E387" s="12"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="E388" s="12"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="E389" s="12"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="E390" s="12"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="E391" s="12"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="E392" s="12"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="E393" s="12"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="E394" s="12"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="E395" s="12"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="E396" s="12"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="E397" s="12"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="E398" s="12"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="E399" s="12"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="E400" s="12"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="E401" s="12"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="E402" s="12"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="E403" s="12"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="E404" s="12"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="E405" s="12"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="E406" s="12"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="E407" s="12"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="E408" s="12"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="E409" s="12"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="E410" s="12"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="E411" s="12"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="E412" s="12"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="E413" s="12"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="E414" s="12"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="E415" s="12"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="E416" s="12"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="E417" s="12"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="E418" s="12"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="E419" s="12"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="E420" s="12"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="E421" s="12"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="E422" s="12"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="E423" s="12"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="E424" s="12"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="E425" s="12"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="E426" s="12"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="E427" s="12"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="E428" s="12"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="E429" s="12"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="E430" s="12"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="E431" s="12"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="E432" s="12"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="E433" s="12"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="E434" s="12"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="E435" s="12"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="E436" s="12"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="E437" s="12"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="E438" s="12"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="E439" s="12"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="E440" s="12"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="E441" s="12"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="E442" s="12"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="E443" s="12"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="E444" s="12"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="E445" s="12"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="E446" s="12"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="E447" s="12"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="E448" s="12"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="E449" s="12"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="E450" s="12"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="E451" s="12"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="E452" s="12"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="E453" s="12"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="E454" s="12"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="E455" s="12"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="E456" s="12"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="E457" s="12"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="E458" s="12"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="E459" s="12"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="E460" s="12"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="E461" s="12"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="E462" s="12"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="E463" s="12"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="E464" s="12"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="E465" s="12"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="E466" s="12"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="E467" s="12"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="E468" s="12"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="E469" s="12"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="E470" s="12"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="E471" s="12"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="E472" s="12"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="E473" s="12"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="E474" s="12"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="E475" s="12"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="E476" s="12"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="E477" s="12"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="E478" s="12"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="E479" s="12"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="E480" s="12"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="E481" s="12"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="E482" s="12"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="E483" s="12"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="E484" s="12"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="E485" s="12"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="E486" s="12"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="E487" s="12"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="E488" s="12"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="E489" s="12"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="E490" s="12"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="E491" s="12"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="E492" s="12"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="E493" s="12"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="E494" s="12"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="E495" s="12"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="E496" s="12"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="E497" s="12"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="E498" s="12"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="E499" s="12"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="E500" s="12"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="E501" s="12"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="E502" s="12"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="E503" s="12"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="E504" s="12"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="E505" s="12"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="E506" s="12"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="E507" s="12"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="E508" s="12"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="E509" s="12"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="E510" s="12"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="E511" s="12"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="E512" s="12"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="E513" s="12"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="E514" s="12"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="E515" s="12"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="E516" s="12"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="E517" s="12"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="E518" s="12"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="E519" s="12"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="E520" s="12"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="E521" s="12"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="E522" s="12"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="E523" s="12"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="E524" s="12"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="E525" s="12"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="E526" s="12"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="E527" s="12"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="E528" s="12"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="E529" s="12"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="E530" s="12"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="E531" s="12"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="E532" s="12"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="E533" s="12"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="E534" s="12"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="E535" s="12"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="E536" s="12"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="E537" s="12"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="E538" s="12"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="E539" s="12"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="E540" s="12"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="E541" s="12"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="E542" s="12"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="E543" s="12"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="E544" s="12"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="E545" s="12"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="E546" s="12"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="E547" s="12"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="E548" s="12"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="E549" s="12"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="E550" s="12"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="E551" s="12"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="E552" s="12"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="E553" s="12"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="E554" s="12"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="E555" s="12"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="E556" s="12"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="E557" s="12"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="E558" s="12"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="E559" s="12"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="E560" s="12"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="E561" s="12"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="E562" s="12"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="E563" s="12"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="E564" s="12"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="E565" s="12"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="E566" s="12"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="E567" s="12"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="E568" s="12"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="E569" s="12"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="E570" s="12"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="E571" s="12"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="E572" s="12"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="E573" s="12"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="E574" s="12"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="E575" s="12"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="E576" s="12"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="E577" s="12"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="E578" s="12"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="E579" s="12"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="E580" s="12"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="E581" s="12"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="E582" s="12"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="E583" s="12"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="E584" s="12"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="E585" s="12"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="E586" s="12"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="E587" s="12"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="E588" s="12"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="E589" s="12"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="E590" s="12"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="E591" s="12"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="E592" s="12"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="E593" s="12"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="E594" s="12"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="E595" s="12"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="E596" s="12"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="E597" s="12"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="E598" s="12"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="E599" s="12"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="E600" s="12"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="E601" s="12"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="E602" s="12"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="E603" s="12"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="E604" s="12"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="E605" s="12"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="E606" s="12"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="E607" s="12"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="E608" s="12"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="E609" s="12"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="E610" s="12"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="E611" s="12"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="E612" s="12"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="E613" s="12"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="E614" s="12"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="E615" s="12"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="E616" s="12"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="E617" s="12"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="E618" s="12"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="E619" s="12"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="E620" s="12"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="E621" s="12"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="E622" s="12"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="E623" s="12"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="E624" s="12"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="E625" s="12"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="E626" s="12"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="E627" s="12"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="E628" s="12"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="E629" s="12"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="E630" s="12"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="E631" s="12"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="E632" s="12"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="E633" s="12"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="E634" s="12"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="E635" s="12"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="E636" s="12"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="E637" s="12"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="E638" s="12"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="E639" s="12"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="E640" s="12"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="E641" s="12"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="E642" s="12"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="E643" s="12"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="E644" s="12"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="E645" s="12"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="E646" s="12"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="E647" s="12"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="E648" s="12"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="E649" s="12"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="E650" s="12"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="E651" s="12"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="E652" s="12"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="E653" s="12"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="E654" s="12"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="E655" s="12"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="E656" s="12"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="E657" s="12"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="E658" s="12"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="E659" s="12"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="E660" s="12"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="E661" s="12"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="E662" s="12"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="E663" s="12"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="E664" s="12"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="E665" s="12"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="E666" s="12"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="E667" s="12"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="E668" s="12"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="E669" s="12"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="E670" s="12"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="E671" s="12"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="E672" s="12"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="E673" s="12"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="E674" s="12"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="E675" s="12"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="E676" s="12"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="E677" s="12"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="E678" s="12"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="E679" s="12"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="E680" s="12"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="E681" s="12"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="E682" s="12"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="E683" s="12"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="E684" s="12"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="E685" s="12"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="E686" s="12"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="E687" s="12"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="E688" s="12"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="E689" s="12"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="E690" s="12"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="E691" s="12"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="E692" s="12"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="E693" s="12"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="E694" s="12"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="E695" s="12"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="E696" s="12"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="E697" s="12"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="E698" s="12"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="E699" s="12"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="E700" s="12"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="E701" s="12"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="E702" s="12"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="E703" s="12"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="E704" s="12"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="E705" s="12"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="E706" s="12"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="E707" s="12"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="E708" s="12"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="E709" s="12"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="E710" s="12"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="E711" s="12"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="E712" s="12"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="E713" s="12"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="E714" s="12"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="E715" s="12"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="E716" s="12"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="E717" s="12"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="E718" s="12"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="E719" s="12"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="E720" s="12"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="E721" s="12"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="E722" s="12"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="E723" s="12"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="E724" s="12"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="E725" s="12"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="E726" s="12"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="E727" s="12"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="E728" s="12"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="E729" s="12"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="E730" s="12"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="E731" s="12"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="E732" s="12"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="E733" s="12"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="E734" s="12"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="E735" s="12"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="E736" s="12"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="E737" s="12"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="E738" s="12"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="E739" s="12"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="E740" s="12"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="E741" s="12"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="E742" s="12"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="E743" s="12"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="E744" s="12"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="E745" s="12"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="E746" s="12"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="E747" s="12"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="E748" s="12"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="E749" s="12"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="E750" s="12"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="E751" s="12"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="E752" s="12"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="E753" s="12"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="E754" s="12"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="E755" s="12"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="E756" s="12"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="E757" s="12"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="E758" s="12"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="E759" s="12"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="E760" s="12"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="E761" s="12"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="E762" s="12"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="E763" s="12"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="E764" s="12"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="E765" s="12"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="E766" s="12"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="E767" s="12"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="E768" s="12"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="E769" s="12"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="E770" s="12"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="E771" s="12"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="E772" s="12"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="E773" s="12"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="E774" s="12"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="E775" s="12"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="E776" s="12"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="E777" s="12"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="E778" s="12"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="E779" s="12"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="E780" s="12"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="E781" s="12"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="E782" s="12"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="E783" s="12"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="E784" s="12"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="E785" s="12"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="E786" s="12"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="E787" s="12"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="E788" s="12"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="E789" s="12"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="E790" s="12"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="E791" s="12"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="E792" s="12"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="E793" s="12"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="E794" s="12"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="E795" s="12"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="E796" s="12"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="E797" s="12"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="E798" s="12"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="E799" s="12"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="E800" s="12"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="E801" s="12"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="E802" s="12"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="E803" s="12"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="E804" s="12"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="E805" s="12"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="E806" s="12"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="E807" s="12"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="E808" s="12"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="E809" s="12"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="E810" s="12"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="E811" s="12"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="E812" s="12"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="E813" s="12"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="E814" s="12"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="E815" s="12"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="E816" s="12"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="E817" s="12"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="E818" s="12"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="E819" s="12"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="E820" s="12"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="E821" s="12"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="E822" s="12"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="E823" s="12"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="E824" s="12"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="E825" s="12"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="E826" s="12"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="E827" s="12"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="E828" s="12"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="E829" s="12"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="E830" s="12"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="E831" s="12"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="E832" s="12"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="E833" s="12"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="E834" s="12"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="E835" s="12"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="E836" s="12"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="E837" s="12"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="E838" s="12"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="E839" s="12"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="E840" s="12"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="E841" s="12"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="E842" s="12"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="E843" s="12"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="E844" s="12"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="E845" s="12"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="E846" s="12"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="E847" s="12"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="E848" s="12"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="E849" s="12"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="E850" s="12"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="E851" s="12"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="E852" s="12"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="E853" s="12"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="E854" s="12"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="E855" s="12"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="E856" s="12"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="E857" s="12"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="E858" s="12"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="E859" s="12"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="E860" s="12"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="E861" s="12"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="E862" s="12"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="E863" s="12"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="E864" s="12"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="E865" s="12"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="E866" s="12"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="E867" s="12"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="E868" s="12"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="E869" s="12"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="E870" s="12"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="E871" s="12"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="E872" s="12"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="E873" s="12"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="E874" s="12"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="E875" s="12"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="E876" s="12"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="E877" s="12"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="E878" s="12"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="E879" s="12"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="E880" s="12"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="E881" s="12"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="E882" s="12"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="E883" s="12"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="E884" s="12"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="E885" s="12"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="E886" s="12"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="E887" s="12"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="E888" s="12"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="E889" s="12"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="E890" s="12"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="E891" s="12"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="E892" s="12"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="E893" s="12"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="E894" s="12"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="E895" s="12"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="E896" s="12"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="E897" s="12"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="E898" s="12"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="E899" s="12"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="E900" s="12"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="E901" s="12"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="E902" s="12"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="E903" s="12"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="E904" s="12"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="E905" s="12"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="E906" s="12"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="E907" s="12"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="E908" s="12"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="E909" s="12"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="E910" s="12"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="E911" s="12"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="E912" s="12"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="E913" s="12"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="E914" s="12"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="E915" s="12"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="E916" s="12"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="E917" s="12"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="E918" s="12"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="E919" s="12"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="E920" s="12"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="E921" s="12"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="E922" s="12"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="E923" s="12"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="E924" s="12"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="E925" s="12"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="E926" s="12"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="E927" s="12"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="E928" s="12"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="E929" s="12"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="E930" s="12"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="E931" s="12"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="E932" s="12"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="E933" s="12"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="E934" s="12"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="E935" s="12"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="E936" s="12"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="E937" s="12"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="E938" s="12"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="E939" s="12"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="E940" s="12"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="E941" s="12"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="E942" s="12"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="E943" s="12"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="E944" s="12"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="E945" s="12"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="E946" s="12"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="E947" s="12"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="E948" s="12"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="E949" s="12"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="E950" s="12"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="E951" s="12"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="E952" s="12"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="E953" s="12"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="E954" s="12"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="E955" s="12"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="E956" s="12"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="E957" s="12"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="E958" s="12"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="E959" s="12"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="E960" s="12"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="E961" s="12"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="E962" s="12"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="E963" s="12"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="E964" s="12"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="E965" s="12"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="E966" s="12"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="E967" s="12"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="E968" s="12"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="E969" s="12"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="E970" s="12"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="E971" s="12"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="E972" s="12"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="E973" s="12"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="E974" s="12"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="E975" s="12"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="E976" s="12"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="E977" s="12"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="E978" s="12"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="E979" s="12"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="E980" s="12"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="E981" s="12"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="E982" s="12"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="E983" s="12"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="E984" s="12"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="E985" s="12"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="E986" s="12"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="E987" s="12"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="E988" s="12"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="E989" s="12"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="E990" s="12"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="E991" s="12"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="E992" s="12"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="E993" s="12"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="E994" s="12"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="E995" s="12"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="E996" s="12"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="E997" s="12"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="E998" s="12"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="E999" s="12"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="E1000" s="12"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
